--- a/results.xlsx
+++ b/results.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\2023_1st\CV\FaceAlignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1E0CA8-2388-4695-8A5F-E8619EAFDAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBF2FC7-1905-4E20-93B7-FCCD810E4792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$36</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="13">
   <si>
     <t>Model</t>
   </si>
@@ -49,9 +52,6 @@
   </si>
   <si>
     <t>NME</t>
-  </si>
-  <si>
-    <t>raw Resnet19</t>
   </si>
   <si>
     <t>Wing</t>
@@ -62,6 +62,14 @@
   </si>
   <si>
     <t>MSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw Resnet18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -395,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E30" sqref="A30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -473,7 +481,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>0</v>
@@ -639,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
         <v>0.3</v>
@@ -659,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
         <v>0.3</v>
@@ -679,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1">
         <v>0.3</v>
@@ -699,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1">
         <v>0.3</v>
@@ -719,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1">
         <v>0.3</v>
@@ -736,19 +744,19 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
       </c>
       <c r="F17" s="1">
-        <v>12.552</v>
+        <v>13.042999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -765,7 +773,7 @@
         <v>0.3</v>
       </c>
       <c r="E18" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -782,124 +790,315 @@
         <v>0.3</v>
       </c>
       <c r="E19" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1">
-        <v>13.916</v>
+        <v>12.552</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B20" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D20" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E20" s="1">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F20" s="1">
+        <v>14.391999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D21" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E21" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F21" s="1">
-        <v>4.1189999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="1">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1">
-        <v>9.8569999999999993</v>
+        <v>13.916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D25" s="1">
         <v>0.5</v>
       </c>
       <c r="E25" s="1">
-        <v>8</v>
-      </c>
-      <c r="F25" s="1">
-        <v>7.3920000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D26" s="1">
         <v>0.5</v>
       </c>
       <c r="E26" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1">
-        <v>9.0969999999999995</v>
+        <v>3.3730000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D27" s="1">
         <v>0.5</v>
       </c>
       <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.5779999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4.1189999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="1">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1">
+        <v>4.5010000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3.6739999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1">
+        <v>9.8569999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1">
+        <v>7.3920000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>16</v>
+      </c>
+      <c r="F35" s="1">
+        <v>9.0969999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="1">
         <v>32</v>
+      </c>
+      <c r="F36" s="1">
+        <v>13.272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\2023_1st\CV\FaceAlignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBF2FC7-1905-4E20-93B7-FCCD810E4792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F86AC04-424F-4F33-BF04-0D3F0D523BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -403,20 +403,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E30" sqref="A30:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -424,10 +425,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -443,11 +444,11 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>0.3</v>
@@ -463,11 +464,11 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>0.3</v>
@@ -483,11 +484,11 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>0.3</v>
@@ -503,11 +504,11 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>0.3</v>
@@ -523,11 +524,11 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>0.3</v>
@@ -543,11 +544,11 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>0.1</v>
@@ -563,11 +564,11 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0.2</v>
@@ -583,11 +584,11 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D9" s="1">
         <v>0.4</v>
@@ -603,11 +604,11 @@
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <v>0.5</v>
@@ -623,11 +624,11 @@
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D11" s="1">
         <v>0.6</v>
@@ -639,135 +640,92 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>12.178000000000001</v>
-      </c>
-    </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>0.3</v>
       </c>
       <c r="E13" s="1">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1">
-        <v>6.3689999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D14" s="1">
         <v>0.3</v>
       </c>
       <c r="E14" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1">
-        <v>6.9669999999999996</v>
+        <v>12.552</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D15" s="1">
         <v>0.3</v>
       </c>
       <c r="E15" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1">
-        <v>8.7940000000000005</v>
+        <v>14.391999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>0.3</v>
       </c>
       <c r="E16" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1">
-        <v>13.18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="1">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1">
-        <v>13.042999999999999</v>
+        <v>13.916</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D18" s="1">
         <v>0.3</v>
@@ -775,16 +733,19 @@
       <c r="E18" s="1">
         <v>2</v>
       </c>
+      <c r="F18" s="1">
+        <v>12.178000000000001</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D19" s="1">
         <v>0.3</v>
@@ -793,18 +754,18 @@
         <v>4</v>
       </c>
       <c r="F19" s="1">
-        <v>12.552</v>
+        <v>6.3689999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D20" s="1">
         <v>0.3</v>
@@ -813,18 +774,18 @@
         <v>8</v>
       </c>
       <c r="F20" s="1">
-        <v>14.391999999999999</v>
+        <v>6.9669999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D21" s="1">
         <v>0.3</v>
@@ -833,272 +794,318 @@
         <v>16</v>
       </c>
       <c r="F21" s="1">
-        <v>13.916</v>
+        <v>8.7940000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1">
+        <v>13.18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
+      </c>
+      <c r="F23" s="1">
+        <v>13.042999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1">
-        <v>3.3730000000000002</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C27" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="D27" s="1">
         <v>0.5</v>
       </c>
       <c r="E27" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>3.5779999999999998</v>
+        <v>9.9239999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C28" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="D28" s="1">
         <v>0.5</v>
       </c>
       <c r="E28" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1">
-        <v>4.1189999999999998</v>
+        <v>3.3730000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C29" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="D29" s="1">
         <v>0.5</v>
       </c>
       <c r="E29" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F29" s="1">
-        <v>4.5010000000000003</v>
+        <v>3.5779999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="1">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4.1189999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C31" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="D31" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E31" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F31" s="1">
-        <v>3.6739999999999999</v>
+        <v>4.5010000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C33" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="D33" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E33" s="1">
         <v>4</v>
       </c>
       <c r="F33" s="1">
-        <v>9.8569999999999993</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E34" s="1">
-        <v>8</v>
-      </c>
-      <c r="F34" s="1">
-        <v>7.3920000000000003</v>
+        <v>3.6739999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C35" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="D35" s="1">
         <v>0.5</v>
       </c>
       <c r="E35" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F35" s="1">
-        <v>9.0969999999999995</v>
+        <v>9.8569999999999993</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C36" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="D36" s="1">
         <v>0.5</v>
       </c>
       <c r="E36" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F36" s="1">
-        <v>13.272</v>
+        <v>7.3920000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>16</v>
+      </c>
+      <c r="F37" s="1">
+        <v>9.0969999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C38" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="D38" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E38" s="1">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="F38" s="1">
+        <v>13.272</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>12</v>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E40" s="1">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F40" s="1">
+        <v>6.9089999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C42" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="D42" s="1">
         <v>0.5</v>
       </c>
       <c r="E42" s="1">
-        <v>16</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\2023_1st\CV\FaceAlignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F86AC04-424F-4F33-BF04-0D3F0D523BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2CE0F7-B97B-4B9F-98D9-F39EE9531388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="13">
   <si>
     <t>Model</t>
   </si>
@@ -403,17 +403,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -425,10 +425,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -444,11 +444,11 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="b">
-        <v>0</v>
+      <c r="B2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>0.3</v>
@@ -464,11 +464,11 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="b">
-        <v>0</v>
+      <c r="B3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>0.3</v>
@@ -484,11 +484,11 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="b">
-        <v>0</v>
+      <c r="B4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>0.3</v>
@@ -504,11 +504,11 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="b">
-        <v>0</v>
+      <c r="B5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>0.3</v>
@@ -524,11 +524,11 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="b">
-        <v>0</v>
+      <c r="B6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>0.3</v>
@@ -544,11 +544,11 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="b">
-        <v>0</v>
+      <c r="B7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>0.1</v>
@@ -564,11 +564,11 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="b">
-        <v>0</v>
+      <c r="B8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>0.2</v>
@@ -584,11 +584,11 @@
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="b">
-        <v>0</v>
+      <c r="B9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D9" s="1">
         <v>0.4</v>
@@ -604,11 +604,11 @@
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="b">
-        <v>0</v>
+      <c r="B10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D10" s="1">
         <v>0.5</v>
@@ -624,11 +624,11 @@
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="b">
-        <v>0</v>
+      <c r="B11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D11" s="1">
         <v>0.6</v>
@@ -644,11 +644,11 @@
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="b">
-        <v>1</v>
+      <c r="B13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D13" s="1">
         <v>0.3</v>
@@ -661,11 +661,11 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="b">
-        <v>1</v>
+      <c r="B14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D14" s="1">
         <v>0.3</v>
@@ -681,11 +681,11 @@
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="b">
-        <v>1</v>
+      <c r="B15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D15" s="1">
         <v>0.3</v>
@@ -701,11 +701,11 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="b">
-        <v>1</v>
+      <c r="B16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D16" s="1">
         <v>0.3</v>
@@ -721,11 +721,11 @@
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1" t="b">
-        <v>0</v>
+      <c r="B18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D18" s="1">
         <v>0.3</v>
@@ -741,11 +741,11 @@
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1" t="b">
-        <v>0</v>
+      <c r="B19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D19" s="1">
         <v>0.3</v>
@@ -761,11 +761,11 @@
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="b">
-        <v>0</v>
+      <c r="B20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D20" s="1">
         <v>0.3</v>
@@ -781,11 +781,11 @@
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1" t="b">
-        <v>0</v>
+      <c r="B21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D21" s="1">
         <v>0.3</v>
@@ -801,11 +801,11 @@
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1" t="b">
-        <v>0</v>
+      <c r="B22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D22" s="1">
         <v>0.3</v>
@@ -821,290 +821,327 @@
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1" t="b">
-        <v>0</v>
+      <c r="B23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D23" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E23" s="1">
         <v>4</v>
       </c>
-      <c r="F23" s="1">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
         <v>13.042999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>9.9239999999999995</v>
+      <c r="D26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="D28" s="1">
         <v>0.5</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>3.3730000000000002</v>
+        <v>9.9239999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="D29" s="1">
         <v>0.5</v>
       </c>
       <c r="E29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29" s="1">
-        <v>3.5779999999999998</v>
+        <v>3.3730000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="D30" s="1">
         <v>0.5</v>
       </c>
       <c r="E30" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1">
-        <v>4.1189999999999998</v>
+        <v>3.5779999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="D31" s="1">
         <v>0.5</v>
       </c>
       <c r="E31" s="1">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4.1189999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="1">
         <v>16</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F32" s="1">
         <v>4.5010000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E33" s="1">
-        <v>4</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="D34" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1">
         <v>3.6739999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E35" s="1">
-        <v>4</v>
-      </c>
-      <c r="F35" s="1">
-        <v>9.8569999999999993</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="D36" s="1">
         <v>0.5</v>
       </c>
       <c r="E36" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F36" s="1">
-        <v>7.3920000000000003</v>
+        <v>9.8569999999999993</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="D37" s="1">
         <v>0.5</v>
       </c>
       <c r="E37" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F37" s="1">
-        <v>9.0969999999999995</v>
+        <v>7.3920000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="D38" s="1">
         <v>0.5</v>
       </c>
       <c r="E38" s="1">
+        <v>16</v>
+      </c>
+      <c r="F38" s="1">
+        <v>9.0969999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="1">
         <v>32</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F39" s="1">
         <v>13.272</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E40" s="1">
-        <v>8</v>
-      </c>
-      <c r="F40" s="1">
+      <c r="D41" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>8</v>
+      </c>
+      <c r="F41" s="1">
         <v>6.9089999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="D44" s="1">
         <v>0.5</v>
       </c>
       <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>6.2279999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="1">
         <v>8</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\2023_1st\CV\FaceAlignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2CE0F7-B97B-4B9F-98D9-F39EE9531388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F31C83-AAA8-4F89-B722-D2111F537072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="13">
   <si>
     <t>Model</t>
   </si>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -985,9 +985,29 @@
         <v>0.3</v>
       </c>
       <c r="E34" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1">
+        <v>3.5009999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
         <v>3.6739999999999999</v>
       </c>
     </row>
@@ -996,59 +1016,16 @@
         <v>9</v>
       </c>
       <c r="B36" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E36" s="1">
-        <v>4</v>
-      </c>
-      <c r="F36" s="1">
-        <v>9.8569999999999993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E37" s="1">
-        <v>8</v>
-      </c>
-      <c r="F37" s="1">
-        <v>7.3920000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E38" s="1">
-        <v>16</v>
-      </c>
-      <c r="F38" s="1">
-        <v>9.0969999999999995</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1065,10 +1042,30 @@
         <v>0.5</v>
       </c>
       <c r="E39" s="1">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1">
-        <v>13.272</v>
+        <v>9.8569999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>8</v>
+      </c>
+      <c r="F40" s="1">
+        <v>7.3920000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1082,13 +1079,33 @@
         <v>10</v>
       </c>
       <c r="D41" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E41" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F41" s="1">
-        <v>6.9089999999999998</v>
+        <v>9.0969999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>32</v>
+      </c>
+      <c r="F42" s="1">
+        <v>13.272</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1096,36 +1113,19 @@
         <v>9</v>
       </c>
       <c r="B44" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E44" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1">
-        <v>6.2279999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E45" s="1">
-        <v>8</v>
+        <v>6.9089999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1133,7 +1133,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
@@ -1142,6 +1142,43 @@
         <v>0.5</v>
       </c>
       <c r="E47" s="1">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1">
+        <v>6.2279999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="1">
         <v>8</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\2023_1st\CV\FaceAlignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F31C83-AAA8-4F89-B722-D2111F537072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60655F2D-B7A2-4EC7-A56B-2545CBA0BCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$43</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="13">
   <si>
     <t>Model</t>
   </si>
@@ -98,12 +98,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,9 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -403,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -461,22 +470,22 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
         <v>5.58</v>
       </c>
     </row>
@@ -540,26 +549,6 @@
         <v>12.052</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6.6950000000000003</v>
-      </c>
-    </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
@@ -571,13 +560,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
       </c>
       <c r="F8" s="1">
-        <v>6.5129999999999999</v>
+        <v>6.6950000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -591,13 +580,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
       </c>
       <c r="F9" s="1">
-        <v>6.0039999999999996</v>
+        <v>6.5129999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -611,13 +600,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
       </c>
       <c r="F10" s="1">
-        <v>5.9234999999999998</v>
+        <v>6.0039999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -631,30 +620,33 @@
         <v>6</v>
       </c>
       <c r="D11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5.9234999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.6</v>
       </c>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
         <v>6.19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,10 +663,7 @@
         <v>0.3</v>
       </c>
       <c r="E14" s="1">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1">
-        <v>12.552</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -691,10 +680,10 @@
         <v>0.3</v>
       </c>
       <c r="E15" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1">
-        <v>14.391999999999999</v>
+        <v>12.552</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,30 +700,30 @@
         <v>0.3</v>
       </c>
       <c r="E16" s="1">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1">
+        <v>14.391999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="1">
         <v>16</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F17" s="1">
         <v>13.916</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1">
-        <v>12.178000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -751,10 +740,10 @@
         <v>0.3</v>
       </c>
       <c r="E19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1">
-        <v>6.3689999999999998</v>
+        <v>12.178000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -771,10 +760,10 @@
         <v>0.3</v>
       </c>
       <c r="E20" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1">
-        <v>6.9669999999999996</v>
+        <v>6.3689999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,10 +780,10 @@
         <v>0.3</v>
       </c>
       <c r="E21" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1">
-        <v>8.7940000000000005</v>
+        <v>6.9669999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -811,10 +800,10 @@
         <v>0.3</v>
       </c>
       <c r="E22" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F22" s="1">
-        <v>13.18</v>
+        <v>8.7940000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -828,10 +817,13 @@
         <v>8</v>
       </c>
       <c r="D23" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E23" s="1">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="F23" s="1">
+        <v>13.18</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -845,50 +837,50 @@
         <v>8</v>
       </c>
       <c r="D24" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E24" s="1">
         <v>4</v>
       </c>
-      <c r="F24" s="1">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
         <v>13.042999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>9.9239999999999995</v>
+      <c r="D27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>14.676</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -905,30 +897,30 @@
         <v>0.5</v>
       </c>
       <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>9.9239999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F30" s="2">
         <v>3.3730000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="1">
-        <v>4</v>
-      </c>
-      <c r="F30" s="1">
-        <v>3.5779999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -945,10 +937,10 @@
         <v>0.5</v>
       </c>
       <c r="E31" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F31" s="1">
-        <v>4.1189999999999998</v>
+        <v>3.5779999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -965,30 +957,30 @@
         <v>0.5</v>
       </c>
       <c r="E32" s="1">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4.1189999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="1">
         <v>16</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F33" s="1">
         <v>4.5010000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E34" s="1">
-        <v>2</v>
-      </c>
-      <c r="F34" s="1">
-        <v>3.5009999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1005,10 +997,10 @@
         <v>0.3</v>
       </c>
       <c r="E35" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35" s="1">
-        <v>3.6739999999999999</v>
+        <v>3.5009999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1022,30 +1014,53 @@
         <v>10</v>
       </c>
       <c r="D36" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3.6739999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1">
         <v>0.4</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E37" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E39" s="1">
-        <v>4</v>
-      </c>
-      <c r="F39" s="1">
-        <v>9.8569999999999993</v>
+      <c r="F37" s="1">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3.9449999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1062,10 +1077,10 @@
         <v>0.5</v>
       </c>
       <c r="E40" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F40" s="1">
-        <v>7.3920000000000003</v>
+        <v>9.8569999999999993</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1082,10 +1097,10 @@
         <v>0.5</v>
       </c>
       <c r="E41" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1">
-        <v>9.0969999999999995</v>
+        <v>7.3920000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1102,50 +1117,50 @@
         <v>0.5</v>
       </c>
       <c r="E42" s="1">
+        <v>16</v>
+      </c>
+      <c r="F42" s="1">
+        <v>9.0969999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="1">
         <v>32</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F43" s="1">
         <v>13.272</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E44" s="1">
-        <v>8</v>
-      </c>
-      <c r="F44" s="1">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1">
         <v>6.9089999999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E47" s="1">
-        <v>4</v>
-      </c>
-      <c r="F47" s="1">
-        <v>6.2279999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1162,15 +1177,35 @@
         <v>0.5</v>
       </c>
       <c r="E48" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1">
+        <v>6.2279999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
@@ -1179,7 +1214,61 @@
         <v>0.5</v>
       </c>
       <c r="E50" s="1">
-        <v>8</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="1">
+        <v>16</v>
+      </c>
+      <c r="F54" s="1">
+        <v>14.265000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\2023_1st\CV\FaceAlignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60655F2D-B7A2-4EC7-A56B-2545CBA0BCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326954AB-EEC5-4ED6-BAAE-2FF3EA3269E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\2023_1st\CV\FaceAlignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326954AB-EEC5-4ED6-BAAE-2FF3EA3269E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D484E5F2-8786-44CD-A7E2-6EE6F04908BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$43</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -70,6 +70,22 @@
   </si>
   <si>
     <t>Wing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cas Stage2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>noAug_MSE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -412,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:F38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -425,11 +441,12 @@
     <col min="3" max="3" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,10 +463,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -465,11 +485,14 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
         <v>5.7649999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -485,11 +508,14 @@
       <c r="E3" s="2">
         <v>4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
         <v>5.58</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -505,11 +531,14 @@
       <c r="E4" s="1">
         <v>8</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
         <v>8.5419999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -525,11 +554,14 @@
       <c r="E5" s="1">
         <v>16</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1">
         <v>10.694000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -545,11 +577,14 @@
       <c r="E6" s="1">
         <v>32</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
         <v>12.052</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -565,11 +600,14 @@
       <c r="E8" s="1">
         <v>4</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1">
         <v>6.6950000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -585,11 +623,14 @@
       <c r="E9" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1">
         <v>6.5129999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -605,11 +646,14 @@
       <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1">
         <v>6.0039999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -625,11 +669,14 @@
       <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1">
         <v>5.9234999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -645,11 +692,14 @@
       <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1">
         <v>6.19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -665,8 +715,11 @@
       <c r="E14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -682,11 +735,14 @@
       <c r="E15" s="1">
         <v>4</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1">
         <v>12.552</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -702,11 +758,14 @@
       <c r="E16" s="1">
         <v>8</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1">
         <v>14.391999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -722,11 +781,14 @@
       <c r="E17" s="1">
         <v>16</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
         <v>13.916</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -742,11 +804,14 @@
       <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1">
         <v>12.178000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -762,11 +827,14 @@
       <c r="E20" s="1">
         <v>4</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1">
         <v>6.3689999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -782,11 +850,14 @@
       <c r="E21" s="1">
         <v>8</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1">
         <v>6.9669999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -802,11 +873,14 @@
       <c r="E22" s="1">
         <v>16</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1">
         <v>8.7940000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -822,11 +896,14 @@
       <c r="E23" s="1">
         <v>32</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1">
         <v>13.18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -842,8 +919,11 @@
       <c r="E24" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,11 +939,14 @@
       <c r="E25" s="1">
         <v>4</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1">
         <v>13.042999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -879,11 +962,14 @@
       <c r="E27" s="1">
         <v>4</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1">
         <v>14.676</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -899,11 +985,14 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1">
         <v>9.9239999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -919,11 +1008,14 @@
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2">
         <v>3.3730000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -939,11 +1031,14 @@
       <c r="E31" s="1">
         <v>4</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1">
         <v>3.5779999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -959,11 +1054,14 @@
       <c r="E32" s="1">
         <v>8</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1">
         <v>4.1189999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -979,11 +1077,14 @@
       <c r="E33" s="1">
         <v>16</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1">
         <v>4.5010000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -999,11 +1100,14 @@
       <c r="E35" s="1">
         <v>2</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1">
         <v>3.5009999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -1019,11 +1123,14 @@
       <c r="E36" s="1">
         <v>4</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1">
         <v>3.6739999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -1039,11 +1146,14 @@
       <c r="E37" s="1">
         <v>2</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1">
         <v>3.47</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1059,11 +1169,14 @@
       <c r="E38" s="1">
         <v>2</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1">
         <v>3.9449999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -1079,11 +1192,14 @@
       <c r="E40" s="1">
         <v>4</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1">
         <v>9.8569999999999993</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -1099,11 +1215,14 @@
       <c r="E41" s="1">
         <v>8</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="1">
         <v>7.3920000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -1119,11 +1238,14 @@
       <c r="E42" s="1">
         <v>16</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="1">
         <v>9.0969999999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -1139,11 +1261,14 @@
       <c r="E43" s="1">
         <v>32</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="1">
         <v>13.272</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -1159,11 +1284,14 @@
       <c r="E45" s="1">
         <v>8</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="1">
         <v>6.9089999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
@@ -1179,11 +1307,14 @@
       <c r="E48" s="1">
         <v>4</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="1">
         <v>6.2279999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
@@ -1199,8 +1330,14 @@
       <c r="E49" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="1">
+        <v>6.6639999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
@@ -1216,8 +1353,14 @@
       <c r="E50" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="1">
+        <v>10.144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -1233,8 +1376,11 @@
       <c r="E52" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -1250,8 +1396,11 @@
       <c r="E53" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
@@ -1267,8 +1416,51 @@
       <c r="E54" s="1">
         <v>16</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="1">
         <v>14.265000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E60" s="1">
+        <v>16</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\2023_1st\CV\FaceAlignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D484E5F2-8786-44CD-A7E2-6EE6F04908BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A683485-0351-47A4-83BA-5A7E2B78959D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1443,6 +1443,49 @@
         <v>16</v>
       </c>
     </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E58" s="1">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E59" s="1">
+        <v>8</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="1">
+        <v>7.7430000000000003</v>
+      </c>
+    </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>13</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\2023_1st\CV\FaceAlignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A683485-0351-47A4-83BA-5A7E2B78959D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A26A9A-E12E-42B8-8DBB-355E775E957C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="20">
   <si>
     <t>Model</t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>noAug_MSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5g0.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4g0.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3g0.9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -584,6 +596,29 @@
         <v>12.052</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6.6950000000000003</v>
+      </c>
+    </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
@@ -595,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -604,7 +639,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="1">
-        <v>6.6950000000000003</v>
+        <v>6.5129999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -618,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -627,7 +662,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="1">
-        <v>6.5129999999999999</v>
+        <v>6.0039999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -641,7 +676,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -650,7 +685,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="1">
-        <v>6.0039999999999996</v>
+        <v>5.9234999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -664,7 +699,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -673,30 +708,30 @@
         <v>15</v>
       </c>
       <c r="G11" s="1">
-        <v>5.9234999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E12" s="1">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6.19</v>
+      <c r="D13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1">
+        <v>14.058</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -713,10 +748,13 @@
         <v>0.3</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>12.552</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -733,13 +771,13 @@
         <v>0.3</v>
       </c>
       <c r="E15" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="1">
-        <v>12.552</v>
+        <v>14.391999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -756,36 +794,36 @@
         <v>0.3</v>
       </c>
       <c r="E16" s="1">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1">
+        <v>13.916</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1">
-        <v>14.391999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>16</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1">
-        <v>13.916</v>
+      <c r="D18" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>12.178000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -802,13 +840,13 @@
         <v>0.3</v>
       </c>
       <c r="E19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="1">
-        <v>12.178000000000001</v>
+        <v>6.3689999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -825,13 +863,13 @@
         <v>0.3</v>
       </c>
       <c r="E20" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="1">
-        <v>6.3689999999999998</v>
+        <v>6.9669999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -848,13 +886,13 @@
         <v>0.3</v>
       </c>
       <c r="E21" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="1">
-        <v>6.9669999999999996</v>
+        <v>8.7940000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -871,13 +909,13 @@
         <v>0.3</v>
       </c>
       <c r="E22" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="1">
-        <v>8.7940000000000005</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -891,16 +929,16 @@
         <v>8</v>
       </c>
       <c r="D23" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E23" s="1">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="1">
-        <v>13.18</v>
+        <v>7.2350000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -914,13 +952,16 @@
         <v>8</v>
       </c>
       <c r="D24" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E24" s="1">
         <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G24" s="1">
+        <v>11.61</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1289,6 +1330,26 @@
       </c>
       <c r="G45" s="1">
         <v>6.9089999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1442,6 +1503,9 @@
       <c r="F57" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G57" s="1">
+        <v>5.7869999999999999</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -1462,6 +1526,9 @@
       <c r="F58" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G58" s="1">
+        <v>8.1270000000000007</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -1503,6 +1570,115 @@
         <v>16</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="1">
+        <v>6.8150000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="1">
+        <v>11.266999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="1">
+        <v>5.3949999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\2023_1st\CV\FaceAlignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A26A9A-E12E-42B8-8DBB-355E775E957C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F524D21E-B9C9-4E2D-B039-245C826AC090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="21">
   <si>
     <t>Model</t>
   </si>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>0.3g0.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6g0.9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -440,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1440,6 +1444,9 @@
       <c r="F52" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G52" s="1">
+        <v>13.57</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -1459,6 +1466,9 @@
       </c>
       <c r="F53" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="G53" s="1">
+        <v>13.683</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1572,6 +1582,9 @@
       <c r="F60" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G60" s="1">
+        <v>7.3339999999999996</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -1638,6 +1651,9 @@
       <c r="F65" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G65" s="1">
+        <v>5.3529999999999998</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -1680,6 +1696,55 @@
       </c>
       <c r="F67" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="G67" s="1">
+        <v>5.3490000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" s="1">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E71" s="1">
+        <v>8</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="1">
+        <v>7.0430000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\2023_1st\CV\FaceAlignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F524D21E-B9C9-4E2D-B039-245C826AC090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C97436F-DE87-452C-81E0-B1C6D25BC2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="21">
   <si>
     <t>Model</t>
   </si>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1355,6 +1355,9 @@
       <c r="F47" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G47" s="1">
+        <v>12.446</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -1724,27 +1727,87 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="B70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E71" s="1">
+      <c r="D74" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E74" s="1">
+        <v>4</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E75" s="1">
         <v>8</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" s="1">
+      <c r="F75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="1">
         <v>7.0430000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E76" s="1">
+        <v>16</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\2023_1st\CV\FaceAlignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C97436F-DE87-452C-81E0-B1C6D25BC2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFC127A-3E84-4159-8883-A8EDE830322E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="21">
   <si>
     <t>Model</t>
   </si>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1682,25 +1682,25 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="B67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="2">
         <v>2</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="1">
+      <c r="F67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="2">
         <v>5.3490000000000002</v>
       </c>
     </row>
@@ -1747,6 +1747,49 @@
         <v>16</v>
       </c>
     </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E71" s="1">
+        <v>4</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="1">
+        <v>6.7430000000000003</v>
+      </c>
+    </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>13</v>
@@ -1766,6 +1809,9 @@
       <c r="F74" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G74" s="1">
+        <v>6.9950000000000001</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -1808,6 +1854,9 @@
       </c>
       <c r="F76" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="G76" s="1">
+        <v>6.2329999999999997</v>
       </c>
     </row>
   </sheetData>
